--- a/DataFolder/ExcelFiles/Product groups/Бытовая техника/Стиральные машины.xlsx
+++ b/DataFolder/ExcelFiles/Product groups/Бытовая техника/Стиральные машины.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smeg\Desktop\Excel для SiteWrok\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\Projects\SiteWork\DataFolder\ExcelFiles\Product groups\Бытовая техника\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -138,9 +138,6 @@
     <t>Профессиональная</t>
   </si>
   <si>
-    <t>WMC844P G</t>
-  </si>
-  <si>
     <t>серебристый</t>
   </si>
   <si>
@@ -192,9 +189,6 @@
     <t>Стиральная машина Asko W6444 ALE</t>
   </si>
   <si>
-    <t>W6444 ALE</t>
-  </si>
-  <si>
     <t>Стиральная машина Asko WMC64P</t>
   </si>
   <si>
@@ -243,9 +237,6 @@
     <t>Стиральная машина Asko W68843 W</t>
   </si>
   <si>
-    <t>W68843 W</t>
-  </si>
-  <si>
     <t>Стиральная машина Smeg LBB14AZ</t>
   </si>
   <si>
@@ -255,9 +246,6 @@
     <t>Стиральная машина Asko W694 S</t>
   </si>
   <si>
-    <t>W6984 S</t>
-  </si>
-  <si>
     <t>Стиральная машина Miele WKG120WPS</t>
   </si>
   <si>
@@ -315,18 +303,9 @@
     <t>Стиральная машина Asko W6984 W</t>
   </si>
   <si>
-    <t>W6984 W</t>
-  </si>
-  <si>
     <t>Стиральная машина Asko WMC844V G</t>
   </si>
   <si>
-    <t>WMC844V G</t>
-  </si>
-  <si>
-    <t>W6884D W</t>
-  </si>
-  <si>
     <t>Стиральная машина Miele WKB120WPS</t>
   </si>
   <si>
@@ -336,27 +315,15 @@
     <t>Стиральная машина Asko WMC62V G</t>
   </si>
   <si>
-    <t>WMC62V G</t>
-  </si>
-  <si>
     <t>Стиральная машина Asko W6984 FI</t>
   </si>
   <si>
-    <t>W6984 FI</t>
-  </si>
-  <si>
     <t>Стиральная машина Asko WMC64P Marine</t>
   </si>
   <si>
-    <t>WMC64P Marine</t>
-  </si>
-  <si>
     <t>Стиральная машина Asko W6884ECO W</t>
   </si>
   <si>
-    <t>W6884ECO W</t>
-  </si>
-  <si>
     <t>Стиральная машина Miele WMV960WPS</t>
   </si>
   <si>
@@ -378,27 +345,15 @@
     <t>Стиральная машина Asko W6564 W</t>
   </si>
   <si>
-    <t>W6564 W</t>
-  </si>
-  <si>
     <t>Стиральная машина Asko W6444 W</t>
   </si>
   <si>
-    <t>W6444 W</t>
-  </si>
-  <si>
     <t>Стиральная машина Asko W8844XL W</t>
   </si>
   <si>
-    <t>W8844XL W</t>
-  </si>
-  <si>
     <t>Стиральная машина Asko WMC62P G</t>
   </si>
   <si>
-    <t>WMC62P G</t>
-  </si>
-  <si>
     <t>Стиральная машина Miele WKH131WPS</t>
   </si>
   <si>
@@ -408,15 +363,9 @@
     <t>Стиральная машина Asko W6454 W</t>
   </si>
   <si>
-    <t>W6454 W</t>
-  </si>
-  <si>
     <t>Стиральная машина Asko W6884 W</t>
   </si>
   <si>
-    <t>W6884 W</t>
-  </si>
-  <si>
     <t>Стиральная машина Asko WMC84V</t>
   </si>
   <si>
@@ -469,6 +418,57 @@
   </si>
   <si>
     <t>Защита от протечек</t>
+  </si>
+  <si>
+    <t>WMC844PG</t>
+  </si>
+  <si>
+    <t>W6444ALE</t>
+  </si>
+  <si>
+    <t>W68843W</t>
+  </si>
+  <si>
+    <t>W6984S</t>
+  </si>
+  <si>
+    <t>W6984W</t>
+  </si>
+  <si>
+    <t>WMC844VG</t>
+  </si>
+  <si>
+    <t>W6884DW</t>
+  </si>
+  <si>
+    <t>WMC62VG</t>
+  </si>
+  <si>
+    <t>W6984FI</t>
+  </si>
+  <si>
+    <t>WMC64PMarine</t>
+  </si>
+  <si>
+    <t>W6884ECOW</t>
+  </si>
+  <si>
+    <t>W6564W</t>
+  </si>
+  <si>
+    <t>W6444W</t>
+  </si>
+  <si>
+    <t>W8844XLW</t>
+  </si>
+  <si>
+    <t>WMC62PG</t>
+  </si>
+  <si>
+    <t>W6454W</t>
+  </si>
+  <si>
+    <t>W6884W</t>
   </si>
 </sst>
 </file>
@@ -1120,16 +1120,7 @@
     <cellStyle name="Текст предупреждения" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Хороший" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1468,31 +1459,31 @@
         <v>12</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="M1" s="8" t="s">
         <v>11</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="T1" s="8" t="s">
         <v>7</v>
@@ -1522,7 +1513,7 @@
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>27</v>
@@ -1555,7 +1546,7 @@
         <v>30</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="R2" s="5" t="s">
         <v>30</v>
@@ -1578,7 +1569,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>36</v>
@@ -1598,7 +1589,7 @@
         <v>22</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>32</v>
@@ -1610,7 +1601,7 @@
         <v>29</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N3" s="1">
         <v>10.5</v>
@@ -1622,7 +1613,7 @@
         <v>31</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>30</v>
@@ -1640,15 +1631,15 @@
         <v>19</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>26</v>
@@ -1691,7 +1682,7 @@
         <v>30</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>20</v>
@@ -1703,21 +1694,21 @@
         <v>19</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>26</v>
@@ -1757,10 +1748,10 @@
         <v>1200</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="R5" s="1" t="s">
         <v>20</v>
@@ -1778,31 +1769,31 @@
         <v>19</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>16</v>
@@ -1829,7 +1820,7 @@
         <v>30</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>30</v>
@@ -1847,15 +1838,15 @@
         <v>19</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>26</v>
@@ -1898,7 +1889,7 @@
         <v>30</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>20</v>
@@ -1910,21 +1901,21 @@
         <v>19</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>26</v>
@@ -1955,7 +1946,7 @@
         <v>29</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N8" s="1">
         <v>11</v>
@@ -1967,7 +1958,7 @@
         <v>34</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>30</v>
@@ -1979,21 +1970,21 @@
         <v>19</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>56</v>
+        <v>133</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>26</v>
@@ -2036,7 +2027,7 @@
         <v>31</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>30</v>
@@ -2054,15 +2045,15 @@
         <v>19</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>37</v>
@@ -2081,7 +2072,7 @@
         <v>22</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>32</v>
@@ -2093,7 +2084,7 @@
         <v>29</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N10" s="1">
         <v>8</v>
@@ -2105,7 +2096,7 @@
         <v>31</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="R10" s="1" t="s">
         <v>30</v>
@@ -2123,15 +2114,15 @@
         <v>19</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>26</v>
@@ -2141,7 +2132,7 @@
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>27</v>
@@ -2150,7 +2141,7 @@
         <v>22</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>24</v>
@@ -2171,10 +2162,10 @@
         <v>1400</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="R11" s="1" t="s">
         <v>20</v>
@@ -2192,15 +2183,15 @@
         <v>19</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>26</v>
@@ -2210,7 +2201,7 @@
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>27</v>
@@ -2240,10 +2231,10 @@
         <v>1400</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="R12" s="1" t="s">
         <v>30</v>
@@ -2261,15 +2252,15 @@
         <v>19</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>26</v>
@@ -2300,7 +2291,7 @@
         <v>29</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N13" s="1">
         <v>7</v>
@@ -2312,7 +2303,7 @@
         <v>30</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="R13" s="1" t="s">
         <v>30</v>
@@ -2330,15 +2321,15 @@
         <v>19</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>26</v>
@@ -2348,7 +2339,7 @@
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>27</v>
@@ -2369,7 +2360,7 @@
         <v>29</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N14" s="1">
         <v>7</v>
@@ -2378,10 +2369,10 @@
         <v>1200</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="R14" s="1" t="s">
         <v>20</v>
@@ -2399,15 +2390,15 @@
         <v>19</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>26</v>
@@ -2426,7 +2417,7 @@
         <v>22</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>24</v>
@@ -2438,7 +2429,7 @@
         <v>29</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N15" s="1">
         <v>7</v>
@@ -2450,7 +2441,7 @@
         <v>30</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="R15" s="1" t="s">
         <v>30</v>
@@ -2468,15 +2459,15 @@
         <v>19</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>26</v>
@@ -2495,7 +2486,7 @@
         <v>22</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>29</v>
@@ -2507,7 +2498,7 @@
         <v>29</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N16" s="1">
         <v>7</v>
@@ -2519,7 +2510,7 @@
         <v>30</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="R16" s="1" t="s">
         <v>30</v>
@@ -2537,15 +2528,15 @@
         <v>19</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>26</v>
@@ -2588,7 +2579,7 @@
         <v>31</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="R17" s="1" t="s">
         <v>30</v>
@@ -2606,15 +2597,15 @@
         <v>19</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>26</v>
@@ -2633,7 +2624,7 @@
         <v>22</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>29</v>
@@ -2645,7 +2636,7 @@
         <v>29</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N18" s="1">
         <v>7</v>
@@ -2657,7 +2648,7 @@
         <v>30</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="R18" s="1" t="s">
         <v>30</v>
@@ -2675,15 +2666,15 @@
         <v>19</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>26</v>
@@ -2702,7 +2693,7 @@
         <v>22</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>32</v>
@@ -2726,7 +2717,7 @@
         <v>31</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="R19" s="1" t="s">
         <v>30</v>
@@ -2744,15 +2735,15 @@
         <v>19</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>26</v>
@@ -2762,7 +2753,7 @@
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>27</v>
@@ -2795,7 +2786,7 @@
         <v>30</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="R20" s="1" t="s">
         <v>30</v>
@@ -2813,15 +2804,15 @@
         <v>19</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>26</v>
@@ -2831,7 +2822,7 @@
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>27</v>
@@ -2852,7 +2843,7 @@
         <v>29</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N21" s="1">
         <v>7</v>
@@ -2864,7 +2855,7 @@
         <v>29</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="R21" s="1" t="s">
         <v>20</v>
@@ -2882,15 +2873,15 @@
         <v>19</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>26</v>
@@ -2900,7 +2891,7 @@
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>27</v>
@@ -2933,7 +2924,7 @@
         <v>29</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="R22" s="1" t="s">
         <v>20</v>
@@ -2951,15 +2942,15 @@
         <v>19</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>26</v>
@@ -2969,7 +2960,7 @@
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>27</v>
@@ -3002,7 +2993,7 @@
         <v>30</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="R23" s="1" t="s">
         <v>20</v>
@@ -3014,21 +3005,21 @@
         <v>19</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V23" s="1" t="s">
         <v>19</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>26</v>
@@ -3071,7 +3062,7 @@
         <v>30</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="R24" s="1" t="s">
         <v>30</v>
@@ -3089,15 +3080,15 @@
         <v>19</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>26</v>
@@ -3140,7 +3131,7 @@
         <v>30</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="R25" s="1" t="s">
         <v>30</v>
@@ -3152,21 +3143,21 @@
         <v>19</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V25" s="1" t="s">
         <v>19</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>26</v>
@@ -3176,7 +3167,7 @@
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>27</v>
@@ -3209,7 +3200,7 @@
         <v>30</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="R26" s="1" t="s">
         <v>20</v>
@@ -3227,15 +3218,15 @@
         <v>19</v>
       </c>
       <c r="W26" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>15</v>
@@ -3264,7 +3255,7 @@
         <v>29</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N27" s="1">
         <v>6</v>
@@ -3276,7 +3267,7 @@
         <v>22</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="R27" s="1" t="s">
         <v>20</v>
@@ -3294,15 +3285,15 @@
         <v>19</v>
       </c>
       <c r="W27" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>37</v>
@@ -3321,7 +3312,7 @@
         <v>22</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>32</v>
@@ -3333,7 +3324,7 @@
         <v>29</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N28" s="1">
         <v>8</v>
@@ -3345,7 +3336,7 @@
         <v>31</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="R28" s="1" t="s">
         <v>30</v>
@@ -3363,15 +3354,15 @@
         <v>19</v>
       </c>
       <c r="W28" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>26</v>
@@ -3414,7 +3405,7 @@
         <v>31</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="R29" s="1" t="s">
         <v>30</v>
@@ -3432,15 +3423,15 @@
         <v>19</v>
       </c>
       <c r="W29" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>99</v>
+        <v>137</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>37</v>
@@ -3457,7 +3448,7 @@
         <v>22</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>32</v>
@@ -3469,7 +3460,7 @@
         <v>29</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N30" s="1">
         <v>10.5</v>
@@ -3481,7 +3472,7 @@
         <v>31</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="R30" s="1" t="s">
         <v>30</v>
@@ -3499,15 +3490,15 @@
         <v>19</v>
       </c>
       <c r="W30" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>26</v>
@@ -3550,7 +3541,7 @@
         <v>31</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="R31" s="1" t="s">
         <v>30</v>
@@ -3568,15 +3559,15 @@
         <v>19</v>
       </c>
       <c r="W31" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>26</v>
@@ -3586,7 +3577,7 @@
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>27</v>
@@ -3619,7 +3610,7 @@
         <v>30</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="R32" s="1" t="s">
         <v>30</v>
@@ -3637,15 +3628,15 @@
         <v>19</v>
       </c>
       <c r="W32" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>37</v>
@@ -3664,7 +3655,7 @@
         <v>22</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>32</v>
@@ -3676,7 +3667,7 @@
         <v>29</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N33" s="1">
         <v>8</v>
@@ -3688,7 +3679,7 @@
         <v>31</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="R33" s="1" t="s">
         <v>30</v>
@@ -3706,15 +3697,15 @@
         <v>19</v>
       </c>
       <c r="W33" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>26</v>
@@ -3724,7 +3715,7 @@
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>27</v>
@@ -3733,7 +3724,7 @@
         <v>22</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>32</v>
@@ -3757,7 +3748,7 @@
         <v>31</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="R34" s="1" t="s">
         <v>30</v>
@@ -3775,15 +3766,15 @@
         <v>19</v>
       </c>
       <c r="W34" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>37</v>
@@ -3802,7 +3793,7 @@
         <v>22</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>32</v>
@@ -3814,7 +3805,7 @@
         <v>29</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N35" s="1">
         <v>8</v>
@@ -3826,7 +3817,7 @@
         <v>31</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="R35" s="1" t="s">
         <v>30</v>
@@ -3844,15 +3835,15 @@
         <v>19</v>
       </c>
       <c r="W35" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>26</v>
@@ -3895,7 +3886,7 @@
         <v>31</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="R36" s="1" t="s">
         <v>30</v>
@@ -3913,15 +3904,15 @@
         <v>19</v>
       </c>
       <c r="W36" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>26</v>
@@ -3964,7 +3955,7 @@
         <v>30</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="R37" s="1" t="s">
         <v>30</v>
@@ -3982,15 +3973,15 @@
         <v>19</v>
       </c>
       <c r="W37" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>37</v>
@@ -4007,7 +3998,7 @@
         <v>22</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>32</v>
@@ -4019,7 +4010,7 @@
         <v>29</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N38" s="1">
         <v>11</v>
@@ -4031,7 +4022,7 @@
         <v>31</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="R38" s="1" t="s">
         <v>30</v>
@@ -4049,15 +4040,15 @@
         <v>19</v>
       </c>
       <c r="W38" s="1" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>15</v>
@@ -4086,7 +4077,7 @@
         <v>29</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N39" s="1">
         <v>6</v>
@@ -4098,7 +4089,7 @@
         <v>22</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="R39" s="1" t="s">
         <v>20</v>
@@ -4116,15 +4107,15 @@
         <v>19</v>
       </c>
       <c r="W39" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>26</v>
@@ -4167,7 +4158,7 @@
         <v>31</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="R40" s="1" t="s">
         <v>30</v>
@@ -4185,15 +4176,15 @@
         <v>19</v>
       </c>
       <c r="W40" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>26</v>
@@ -4236,7 +4227,7 @@
         <v>31</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="R41" s="1" t="s">
         <v>30</v>
@@ -4254,15 +4245,15 @@
         <v>19</v>
       </c>
       <c r="W41" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>26</v>
@@ -4303,7 +4294,7 @@
         <v>31</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="R42" s="1" t="s">
         <v>30</v>
@@ -4321,15 +4312,15 @@
         <v>19</v>
       </c>
       <c r="W42" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>37</v>
@@ -4348,7 +4339,7 @@
         <v>22</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>32</v>
@@ -4360,7 +4351,7 @@
         <v>29</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N43" s="1">
         <v>8</v>
@@ -4372,7 +4363,7 @@
         <v>31</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="R43" s="1" t="s">
         <v>30</v>
@@ -4390,15 +4381,15 @@
         <v>19</v>
       </c>
       <c r="W43" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>26</v>
@@ -4441,7 +4432,7 @@
         <v>30</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="R44" s="1" t="s">
         <v>20</v>
@@ -4453,21 +4444,21 @@
         <v>19</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V44" s="1" t="s">
         <v>19</v>
       </c>
       <c r="W44" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>26</v>
@@ -4510,7 +4501,7 @@
         <v>31</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="R45" s="1" t="s">
         <v>30</v>
@@ -4528,15 +4519,15 @@
         <v>19</v>
       </c>
       <c r="W45" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>26</v>
@@ -4579,7 +4570,7 @@
         <v>31</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="R46" s="1" t="s">
         <v>30</v>
@@ -4597,15 +4588,15 @@
         <v>19</v>
       </c>
       <c r="W46" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>37</v>
@@ -4622,7 +4613,7 @@
         <v>22</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>32</v>
@@ -4634,7 +4625,7 @@
         <v>29</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N47" s="1">
         <v>11</v>
@@ -4646,7 +4637,7 @@
         <v>31</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="R47" s="1" t="s">
         <v>30</v>
@@ -4664,7 +4655,7 @@
         <v>19</v>
       </c>
       <c r="W47" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
